--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -202,9 +202,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -215,8 +215,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,48 +296,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,74 +352,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,79 +368,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,103 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +559,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,62 +631,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -659,6 +648,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,145 +667,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1209,7 +1209,7 @@
         <v>0.8</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1277,7 +1277,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1294,7 +1294,7 @@
         <v>0.8</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1328,7 +1328,7 @@
         <v>0.8</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1362,7 +1362,7 @@
         <v>0.8</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1396,7 +1396,7 @@
         <v>0.8</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1413,7 +1413,7 @@
         <v>0.8</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1464,7 +1464,7 @@
         <v>0.8</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1481,7 +1481,7 @@
         <v>0.8</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1498,7 +1498,7 @@
         <v>0.8</v>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1515,7 +1515,7 @@
         <v>0.8</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1532,7 +1532,7 @@
         <v>0.6</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1549,7 +1549,7 @@
         <v>0.8</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -201,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -215,6 +215,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -223,42 +282,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -267,15 +290,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,45 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -338,22 +353,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +559,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,6 +582,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,17 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,33 +651,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -667,16 +667,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,127 +685,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -1532,7 +1532,7 @@
         <v>0.6</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1549,7 +1549,7 @@
         <v>0.8</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -201,15 +201,129 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -223,129 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +351,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -368,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,15 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,6 +573,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,23 +625,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,23 +634,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,145 +667,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelCol="5"/>

--- a/Assets/Data/BGM.xlsx
+++ b/Assets/Data/BGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hibikake_unity\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B96ED2B-8F50-408D-AA80-43CB0B4042B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB225832-658C-4B83-8E8B-DB6A3B32B9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1700" windowWidth="14400" windowHeight="8260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bgm" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -550,10 +550,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
